--- a/assignments/305.xlsx
+++ b/assignments/305.xlsx
@@ -50,18 +50,18 @@
 305D</t>
   </si>
   <si>
+    <t>305D</t>
+  </si>
+  <si>
     <t>305A</t>
   </si>
   <si>
-    <t>305D</t>
+    <t>305C</t>
   </si>
   <si>
     <t>305B</t>
   </si>
   <si>
-    <t>305C</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -77,6 +77,33 @@
     <t>Acoustics (cost)</t>
   </si>
   <si>
+    <t>Tuned Mass Damper (week)</t>
+  </si>
+  <si>
+    <t>Tuned Mass Damper (rank)</t>
+  </si>
+  <si>
+    <t>Tuned Mass Damper (cost)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (week)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (rank)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (cost)</t>
+  </si>
+  <si>
+    <t>Pump (week)</t>
+  </si>
+  <si>
+    <t>Pump (rank)</t>
+  </si>
+  <si>
+    <t>Pump (cost)</t>
+  </si>
+  <si>
     <t>Dynamic Balancing (week)</t>
   </si>
   <si>
@@ -84,33 +111,6 @@
   </si>
   <si>
     <t>Dynamic Balancing (cost)</t>
-  </si>
-  <si>
-    <t>Pump (week)</t>
-  </si>
-  <si>
-    <t>Pump (rank)</t>
-  </si>
-  <si>
-    <t>Pump (cost)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (week)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (rank)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (cost)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (week)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (rank)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (cost)</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -551,14 +551,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -568,14 +568,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -646,106 +646,106 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1.0001</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.0001</v>
+        <v>1.0001</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>2.0001</v>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>2.0001</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3.0001</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.0001</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1.0001</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>7.0004</v>
+        <v>8.000299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -806,82 +806,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>5.118216247002567E-05</v>
+        <v>1.00005118216247</v>
       </c>
       <c r="C2">
-        <v>4.000095046369633</v>
+        <v>2.000095046369633</v>
       </c>
       <c r="D2">
-        <v>2.000014415961272</v>
+        <v>1.441596127196337E-05</v>
       </c>
       <c r="E2">
-        <v>1.000094864944714</v>
+        <v>3.000094864944714</v>
       </c>
       <c r="F2">
-        <v>3.000031183145201</v>
+        <v>4.000031183145201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1.000042332644897</v>
       </c>
       <c r="C3">
-        <v>2.000082770259382</v>
+        <v>4.000082770259382</v>
       </c>
       <c r="D3">
         <v>4.091991363691613E-05</v>
       </c>
       <c r="E3">
-        <v>3.000054959368767</v>
+        <v>2.000054959368767</v>
       </c>
       <c r="F3">
-        <v>4.000002755911324</v>
+        <v>3.000002755911324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1.000075351310868</v>
       </c>
       <c r="C4">
-        <v>4.000053814331322</v>
+        <v>3.000053814331322</v>
       </c>
       <c r="D4">
-        <v>3.297317164990922E-05</v>
+        <v>2.00003297317165</v>
       </c>
       <c r="E4">
-        <v>2.000078842870343</v>
+        <v>7.884287034284043E-05</v>
       </c>
       <c r="F4">
-        <v>3.000030319482929</v>
+        <v>4.000030319482929</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.000045349788948</v>
+        <v>4.534978894806515E-05</v>
       </c>
       <c r="C5">
-        <v>3.000013404169725</v>
+        <v>4.000013404169724</v>
       </c>
       <c r="D5">
         <v>2.000040311298645</v>
       </c>
       <c r="E5">
-        <v>2.034552406761496E-05</v>
+        <v>1.000020345524068</v>
       </c>
       <c r="F5">
-        <v>4.000026231334044</v>
+        <v>3.000026231334044</v>
       </c>
     </row>
   </sheetData>
@@ -904,22 +904,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +948,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1150,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1303,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
